--- a/simulation_data/one_step_algorithm/1s_error_level_15_percent_water_80.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_15_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.36330027815433</v>
+        <v>89.68330208244676</v>
       </c>
       <c r="D2" t="n">
-        <v>5.379855703921426</v>
+        <v>6.516211414339076</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.58940976449308</v>
+        <v>90.32390201285416</v>
       </c>
       <c r="D3" t="n">
-        <v>5.826908903846408</v>
+        <v>5.199430512148384</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>86.99708021787799</v>
+        <v>88.28990700936914</v>
       </c>
       <c r="D4" t="n">
-        <v>5.473073011979377</v>
+        <v>6.18490444276653</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.26181020014752</v>
+        <v>86.8814970407492</v>
       </c>
       <c r="D5" t="n">
-        <v>6.026846497304692</v>
+        <v>5.462821801783465</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.95769989956288</v>
+        <v>86.34260393654495</v>
       </c>
       <c r="D6" t="n">
-        <v>6.257527762983051</v>
+        <v>5.895579246552869</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.45469225276491</v>
+        <v>85.14706015214161</v>
       </c>
       <c r="D7" t="n">
-        <v>5.502613760458984</v>
+        <v>6.205120569406561</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>82.91213935504361</v>
+        <v>84.04203762454468</v>
       </c>
       <c r="D8" t="n">
-        <v>5.940307259371681</v>
+        <v>5.654290478106191</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.69721125030215</v>
+        <v>83.62806285750838</v>
       </c>
       <c r="D9" t="n">
-        <v>5.837424438944768</v>
+        <v>5.770449796320907</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.5141978086137</v>
+        <v>82.25067442064743</v>
       </c>
       <c r="D10" t="n">
-        <v>5.173563876080631</v>
+        <v>5.053737082832469</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.48366926411629</v>
+        <v>80.69304518346571</v>
       </c>
       <c r="D11" t="n">
-        <v>5.386506773531681</v>
+        <v>5.745661176822481</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>78.73882051506031</v>
+        <v>79.10240545274495</v>
       </c>
       <c r="D12" t="n">
-        <v>5.502539741438421</v>
+        <v>6.048181189172723</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.08998410822812</v>
+        <v>79.15439464018441</v>
       </c>
       <c r="D13" t="n">
-        <v>5.471575440738574</v>
+        <v>5.866952175196841</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.81316986843822</v>
+        <v>77.62811681852163</v>
       </c>
       <c r="D14" t="n">
-        <v>6.360967602676174</v>
+        <v>6.097734852413143</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.04782411726811</v>
+        <v>77.4938314244193</v>
       </c>
       <c r="D15" t="n">
-        <v>5.232359078664827</v>
+        <v>5.78306479493834</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.23999172053858</v>
+        <v>76.60817704344898</v>
       </c>
       <c r="D16" t="n">
-        <v>6.423297059147209</v>
+        <v>5.32305739237913</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.92288711426862</v>
+        <v>74.50378531179651</v>
       </c>
       <c r="D17" t="n">
-        <v>5.915957048894564</v>
+        <v>5.954745700438301</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.16632209542111</v>
+        <v>74.51620670676469</v>
       </c>
       <c r="D18" t="n">
-        <v>5.503793231548131</v>
+        <v>5.797023787094585</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.66578912371583</v>
+        <v>73.76764031365117</v>
       </c>
       <c r="D19" t="n">
-        <v>5.87172724735508</v>
+        <v>5.852798886110263</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.55456481435641</v>
+        <v>71.88126682362298</v>
       </c>
       <c r="D20" t="n">
-        <v>6.046289659624503</v>
+        <v>5.73660982153149</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.36283534237788</v>
+        <v>72.11850743553735</v>
       </c>
       <c r="D21" t="n">
-        <v>6.214248897522316</v>
+        <v>5.555136285731889</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.95856472754649</v>
+        <v>69.17334170659269</v>
       </c>
       <c r="D22" t="n">
-        <v>6.172455921327088</v>
+        <v>5.846032015492981</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.2371049372376</v>
+        <v>69.58394890478894</v>
       </c>
       <c r="D23" t="n">
-        <v>6.286004719698706</v>
+        <v>5.620993847098012</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.28086585326565</v>
+        <v>67.7487193817079</v>
       </c>
       <c r="D24" t="n">
-        <v>6.62306229464289</v>
+        <v>6.010832152800943</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.41161991020076</v>
+        <v>67.51792350604546</v>
       </c>
       <c r="D25" t="n">
-        <v>5.651233544322475</v>
+        <v>5.585265682596117</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>64.89392056926357</v>
+        <v>66.47193485113077</v>
       </c>
       <c r="D26" t="n">
-        <v>6.161541038190948</v>
+        <v>6.695646314727993</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.07954777039146</v>
+        <v>64.7786570804042</v>
       </c>
       <c r="D27" t="n">
-        <v>6.647781730686991</v>
+        <v>5.427520815353959</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.4008261546276</v>
+        <v>64.96290962681803</v>
       </c>
       <c r="D28" t="n">
-        <v>6.091937943466266</v>
+        <v>6.262254169532459</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.36023668083833</v>
+        <v>62.56395897204867</v>
       </c>
       <c r="D29" t="n">
-        <v>6.289694958029892</v>
+        <v>6.289887568454349</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.05205344355682</v>
+        <v>63.33902439444218</v>
       </c>
       <c r="D30" t="n">
-        <v>6.188844682634234</v>
+        <v>6.356212250798069</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.96340793281353</v>
+        <v>60.14689346819442</v>
       </c>
       <c r="D31" t="n">
-        <v>6.812908818928176</v>
+        <v>6.303853138249401</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.36545400196857</v>
+        <v>60.00306711845229</v>
       </c>
       <c r="D32" t="n">
-        <v>6.370048827556623</v>
+        <v>7.090379847772014</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.01480125945677</v>
+        <v>58.89271244766698</v>
       </c>
       <c r="D33" t="n">
-        <v>5.600889464388542</v>
+        <v>5.919652093020247</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.31496819497385</v>
+        <v>58.18390204664255</v>
       </c>
       <c r="D34" t="n">
-        <v>7.187050292741253</v>
+        <v>5.857083782697007</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.76018844088044</v>
+        <v>56.61045850158089</v>
       </c>
       <c r="D35" t="n">
-        <v>6.257071838072348</v>
+        <v>5.842885149317226</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.73912067102359</v>
+        <v>56.39723021839098</v>
       </c>
       <c r="D36" t="n">
-        <v>6.390191687859319</v>
+        <v>7.564193381733447</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.66367441771899</v>
+        <v>55.05169178795798</v>
       </c>
       <c r="D37" t="n">
-        <v>6.316622299655603</v>
+        <v>6.526781401901773</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.81924953255608</v>
+        <v>54.10344902024131</v>
       </c>
       <c r="D38" t="n">
-        <v>6.238028744308179</v>
+        <v>6.743418620972984</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.1326889403455</v>
+        <v>52.70533944673188</v>
       </c>
       <c r="D39" t="n">
-        <v>6.629543396451565</v>
+        <v>6.322397966813326</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.27286045433512</v>
+        <v>51.69145676641009</v>
       </c>
       <c r="D40" t="n">
-        <v>5.304920830361815</v>
+        <v>6.100619915201932</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.70165831281442</v>
+        <v>50.63797497202976</v>
       </c>
       <c r="D41" t="n">
-        <v>6.397551436035754</v>
+        <v>7.138180781736243</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.60536826414481</v>
+        <v>50.28199936784044</v>
       </c>
       <c r="D42" t="n">
-        <v>6.609323395922077</v>
+        <v>6.532137522372809</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.61924875024083</v>
+        <v>48.63953453146333</v>
       </c>
       <c r="D43" t="n">
-        <v>6.025831728633409</v>
+        <v>5.984291981878762</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.16502680634053</v>
+        <v>48.49279834401214</v>
       </c>
       <c r="D44" t="n">
-        <v>6.396816646723858</v>
+        <v>5.984117738422923</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.30806928019882</v>
+        <v>47.51596423967749</v>
       </c>
       <c r="D45" t="n">
-        <v>6.620836576682442</v>
+        <v>5.68154876633524</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.84692283064714</v>
+        <v>45.43072002182098</v>
       </c>
       <c r="D46" t="n">
-        <v>6.884610641371395</v>
+        <v>6.358109379474718</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.85634521566462</v>
+        <v>45.51598459522054</v>
       </c>
       <c r="D47" t="n">
-        <v>6.255064540282635</v>
+        <v>6.193329263563584</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.46918414725902</v>
+        <v>43.68550815653393</v>
       </c>
       <c r="D48" t="n">
-        <v>6.175250936230182</v>
+        <v>6.669738784156117</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.08807679113465</v>
+        <v>42.35971607142577</v>
       </c>
       <c r="D49" t="n">
-        <v>6.309530755116144</v>
+        <v>6.350411578607975</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.60259629130071</v>
+        <v>42.86197566570241</v>
       </c>
       <c r="D50" t="n">
-        <v>6.449463682592795</v>
+        <v>6.643289881096964</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.87616547533497</v>
+        <v>41.65638140694696</v>
       </c>
       <c r="D51" t="n">
-        <v>6.366911867423746</v>
+        <v>7.156720397022146</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.41779093586419</v>
+        <v>39.41389007510588</v>
       </c>
       <c r="D52" t="n">
-        <v>6.461705783204679</v>
+        <v>6.966047827908161</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.85666948097091</v>
+        <v>39.01949667669239</v>
       </c>
       <c r="D53" t="n">
-        <v>6.096537977170482</v>
+        <v>7.104633814039409</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.42107446217481</v>
+        <v>36.88502690030054</v>
       </c>
       <c r="D54" t="n">
-        <v>6.241708436126035</v>
+        <v>7.031878844607041</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.02851592911371</v>
+        <v>37.47567147741282</v>
       </c>
       <c r="D55" t="n">
-        <v>7.034921599569646</v>
+        <v>6.030150063426727</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.30451497208727</v>
+        <v>35.27853337784958</v>
       </c>
       <c r="D56" t="n">
-        <v>6.395206707350888</v>
+        <v>7.120193592027153</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.80582369162925</v>
+        <v>34.83598871832064</v>
       </c>
       <c r="D57" t="n">
-        <v>7.29431593089403</v>
+        <v>6.906891579904346</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.95759928323393</v>
+        <v>33.77812994176499</v>
       </c>
       <c r="D58" t="n">
-        <v>6.546094334481552</v>
+        <v>6.369383844680195</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.98637197602434</v>
+        <v>33.17779932963287</v>
       </c>
       <c r="D59" t="n">
-        <v>7.168045882931018</v>
+        <v>6.389062244776502</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.13580703224493</v>
+        <v>31.40619539352013</v>
       </c>
       <c r="D60" t="n">
-        <v>6.528906043746932</v>
+        <v>6.185557287231216</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.0567951240807</v>
+        <v>31.92667511524423</v>
       </c>
       <c r="D61" t="n">
-        <v>6.27017718633048</v>
+        <v>6.61655511332981</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.20008974493614</v>
+        <v>31.10048679554223</v>
       </c>
       <c r="D62" t="n">
-        <v>6.231271074337915</v>
+        <v>6.411154665638178</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.15877937655162</v>
+        <v>28.6479341040395</v>
       </c>
       <c r="D63" t="n">
-        <v>5.931078443328172</v>
+        <v>7.409538182881996</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.61821532106654</v>
+        <v>28.39200402743401</v>
       </c>
       <c r="D64" t="n">
-        <v>7.021069124768661</v>
+        <v>6.577143969896998</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.48083352120234</v>
+        <v>26.74378667553774</v>
       </c>
       <c r="D65" t="n">
-        <v>6.368486932959392</v>
+        <v>7.144546104219248</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.10250228433654</v>
+        <v>25.66727164572004</v>
       </c>
       <c r="D66" t="n">
-        <v>6.871621938363787</v>
+        <v>7.216266749017773</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.43225505223818</v>
+        <v>25.80591533607136</v>
       </c>
       <c r="D67" t="n">
-        <v>7.455603854879826</v>
+        <v>6.73185389040585</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.26772276066948</v>
+        <v>23.708738933356</v>
       </c>
       <c r="D68" t="n">
-        <v>6.824659249909807</v>
+        <v>6.295639437516764</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.96436631813706</v>
+        <v>22.68472690336565</v>
       </c>
       <c r="D69" t="n">
-        <v>6.13198824346986</v>
+        <v>7.334437180078395</v>
       </c>
     </row>
   </sheetData>
